--- a/docs/Пример 1/Простой тест list.xlsx
+++ b/docs/Пример 1/Простой тест list.xlsx
@@ -530,6 +530,9 @@
       </c>
     </row>
     <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -544,6 +547,9 @@
       </c>
     </row>
     <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -558,6 +564,9 @@
       </c>
     </row>
     <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
